--- a/试算单元格映射表/试算单元格映射表_东方基因_费用.xlsx
+++ b/试算单元格映射表/试算单元格映射表_东方基因_费用.xlsx
@@ -1965,9 +1965,9 @@
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59:G59"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
